--- a/data/sus data.xlsx
+++ b/data/sus data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Labuser\Documents\GitHub\PFOA_semi_quant\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440841C6-DDD4-4002-B75A-105B0B755CBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3674712E-434E-4A8D-9118-3ECFDEB06689}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7515" xr2:uid="{C6B0AAEE-2F7C-4103-882D-1C22677DF18B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="29">
   <si>
     <t>SMILES</t>
   </si>
@@ -75,27 +75,9 @@
     <t>12:2 FTSA</t>
   </si>
   <si>
-    <t>FC(F)(CCS(=O)(=O)O)C(F)(F)C(F)(F)C(F)(F)C(F)(F)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>6:2 FTSA</t>
-  </si>
-  <si>
-    <t>T-SB-1</t>
-  </si>
-  <si>
-    <t>FC(F)(CCS(=O)(=O)O)C(F)(F)C(F)(F)C(F)(F)C(F)(F)C(F)(F)C(F)(F)C(F)(F)F</t>
-  </si>
-  <si>
-    <t>8:2 FTSA</t>
-  </si>
-  <si>
     <t>PL-3A</t>
   </si>
   <si>
-    <t>DL-4</t>
-  </si>
-  <si>
     <t>PL-1</t>
   </si>
   <si>
@@ -130,48 +112,6 @@
   </si>
   <si>
     <t>T-SB-3</t>
-  </si>
-  <si>
-    <t>DB-1</t>
-  </si>
-  <si>
-    <t>DB-2</t>
-  </si>
-  <si>
-    <t>DB-3A</t>
-  </si>
-  <si>
-    <t>DB-3B</t>
-  </si>
-  <si>
-    <t>DB-3C</t>
-  </si>
-  <si>
-    <t>DB-4</t>
-  </si>
-  <si>
-    <t>DB-5</t>
-  </si>
-  <si>
-    <t>DL-1</t>
-  </si>
-  <si>
-    <t>DL-2</t>
-  </si>
-  <si>
-    <t>DL-3A</t>
-  </si>
-  <si>
-    <t>DL-3B</t>
-  </si>
-  <si>
-    <t>DL-3C</t>
-  </si>
-  <si>
-    <t>DL-5</t>
-  </si>
-  <si>
-    <t>PB-1</t>
   </si>
 </sst>
 </file>
@@ -557,11 +497,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A94F32-7CAF-494C-8212-9298D0645E5E}">
-  <dimension ref="A1:AO73"/>
+  <dimension ref="A1:AO44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,16 +517,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -597,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>335735</v>
@@ -622,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>143482</v>
@@ -647,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>904015</v>
@@ -672,7 +612,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>148751</v>
@@ -697,7 +637,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>1038166</v>
@@ -722,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>47261</v>
@@ -797,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>8956471</v>
@@ -822,7 +762,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>315729</v>
@@ -847,7 +787,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>592269</v>
@@ -864,7 +804,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>1150822</v>
@@ -881,7 +821,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>284302</v>
@@ -898,7 +838,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>1092435</v>
@@ -915,7 +855,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D16">
         <v>339791</v>
@@ -932,7 +872,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D17">
         <v>354590</v>
@@ -983,7 +923,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D20">
         <v>3894979</v>
@@ -1000,7 +940,7 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D21">
         <v>48446</v>
@@ -1025,7 +965,7 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D22">
         <v>212679</v>
@@ -1042,7 +982,7 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D23">
         <v>49648</v>
@@ -1059,7 +999,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D24">
         <v>275178</v>
@@ -1110,7 +1050,7 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D27">
         <v>23611595</v>
@@ -1127,7 +1067,7 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D28">
         <v>463037</v>
@@ -1144,7 +1084,7 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D29">
         <v>73418</v>
@@ -1161,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D30">
         <v>871751</v>
@@ -1186,7 +1126,7 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D31">
         <v>102784</v>
@@ -1203,7 +1143,7 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D32">
         <v>1965100</v>
@@ -1220,7 +1160,7 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D33">
         <v>489862</v>
@@ -1237,7 +1177,7 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D34">
         <v>2339548</v>
@@ -1288,7 +1228,7 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D37">
         <v>114335905</v>
@@ -1305,7 +1245,7 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D38">
         <v>3075997</v>
@@ -1320,7 +1260,7 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D39">
         <v>1330639</v>
@@ -1405,7 +1345,7 @@
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D42">
         <v>402469</v>
@@ -1439,522 +1379,13 @@
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D44">
         <v>152533</v>
       </c>
       <c r="E44" s="8">
         <v>6.5179999999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45">
-        <v>26927</v>
-      </c>
-      <c r="E45" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="4"/>
-    </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46">
-        <v>35827</v>
-      </c>
-      <c r="E46" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47">
-        <v>1648865</v>
-      </c>
-      <c r="E47" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48">
-        <v>139888</v>
-      </c>
-      <c r="E48" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49">
-        <v>1361556</v>
-      </c>
-      <c r="E49" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50">
-        <v>3307021</v>
-      </c>
-      <c r="E50" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51">
-        <v>8967147</v>
-      </c>
-      <c r="E51" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52">
-        <v>7087771</v>
-      </c>
-      <c r="E52" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53">
-        <v>16810999</v>
-      </c>
-      <c r="E53" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54">
-        <v>10048031</v>
-      </c>
-      <c r="E54" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55">
-        <v>940503</v>
-      </c>
-      <c r="E55" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56">
-        <v>7974887</v>
-      </c>
-      <c r="E56" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57">
-        <v>9509882</v>
-      </c>
-      <c r="E57" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="4"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" t="s">
-        <v>47</v>
-      </c>
-      <c r="D58">
-        <v>9919637</v>
-      </c>
-      <c r="E58" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59">
-        <v>733217</v>
-      </c>
-      <c r="E59" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60">
-        <v>3378613</v>
-      </c>
-      <c r="E60" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61">
-        <v>3579127</v>
-      </c>
-      <c r="E61" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62">
-        <v>2275400</v>
-      </c>
-      <c r="E62" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>16</v>
-      </c>
-      <c r="B63" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63">
-        <v>2538214</v>
-      </c>
-      <c r="E63" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>16</v>
-      </c>
-      <c r="B64" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" t="s">
-        <v>29</v>
-      </c>
-      <c r="D64">
-        <v>3596098</v>
-      </c>
-      <c r="E64" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>16</v>
-      </c>
-      <c r="B65" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65">
-        <v>4035854</v>
-      </c>
-      <c r="E65" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>16</v>
-      </c>
-      <c r="B66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66">
-        <v>18473683</v>
-      </c>
-      <c r="E66" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>16</v>
-      </c>
-      <c r="B67" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67">
-        <v>7813176</v>
-      </c>
-      <c r="E67" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>16</v>
-      </c>
-      <c r="B68" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" t="s">
-        <v>24</v>
-      </c>
-      <c r="D68">
-        <v>4184244</v>
-      </c>
-      <c r="E68" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69">
-        <v>27746896</v>
-      </c>
-      <c r="E69" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>16</v>
-      </c>
-      <c r="B70" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" t="s">
-        <v>33</v>
-      </c>
-      <c r="D70">
-        <v>2597244</v>
-      </c>
-      <c r="E70" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>16</v>
-      </c>
-      <c r="B71" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" t="s">
-        <v>34</v>
-      </c>
-      <c r="D71">
-        <v>6218265</v>
-      </c>
-      <c r="E71" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>19</v>
-      </c>
-      <c r="B72" t="s">
-        <v>20</v>
-      </c>
-      <c r="C72" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72">
-        <v>113295</v>
-      </c>
-      <c r="E72" s="8">
-        <v>4.8150000000000004</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>19</v>
-      </c>
-      <c r="B73" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73" t="s">
-        <v>34</v>
-      </c>
-      <c r="D73">
-        <v>67551</v>
-      </c>
-      <c r="E73" s="8">
-        <v>4.8150000000000004</v>
       </c>
     </row>
   </sheetData>
